--- a/ROBERTO ORLANDO MARROQUIN GONZALEZ_1_2020_auxiliar.xlsx
+++ b/ROBERTO ORLANDO MARROQUIN GONZALEZ_1_2020_auxiliar.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -36,12 +34,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -58,7 +65,7 @@
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -424,444 +431,1218 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
+    <col customWidth="1" max="3" min="3" width="5"/>
+    <col customWidth="1" max="4" min="4" width="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Cuentas</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Descripcion</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Monto Anterior</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Haber</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Deber</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Monto Actual</t>
+          <t>ROBERTO ORLANDO MARROQUIN GONZALEZ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>ACTIVO</t>
+          <t>Libro Auxiliar del mes de Enero de 2020</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Cuentas</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Monto Anterior</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Haber</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Deber</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Monto Actual</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1550.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9050.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7500.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>ACTIVO CORRIENTE</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1550.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7500.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5950.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>EFECTIVO Y EQUIVALENTES</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1550.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7500.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5950.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>110101</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>EFECTIVO EN CAJA GENERAL</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Inyeccion inicial de capital</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2500</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>compra de motocicleta</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1200</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1200.00</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Inyeccion inicial de capital</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>compra de motocicleta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1200.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>110103</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>EFECTIVO EN BANCOS</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Prestamo Bancario</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="2" t="n">
-        <v>43832</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Compra de licencia de office empresarial</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>250</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4750</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4750.00</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ACTIVO NO CORRIENTE</t>
+          <t>Prestamo Bancario</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5000.00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>02/01/2020</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Compra de licencia de office empresarial</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4750.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ACTIVO NO CORRIENTE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1550.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1550.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>1201</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>PROPIEDAD, PLANTA Y EQUIPO</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>120102</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>BIENES MUEBLES</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Compra de Motocicleta</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1202</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>INTANGIBLES</t>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1300.00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Compra de Motocicleta</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTANGIBLES</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>120205</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>LICENCIAS Y PROGRAMAS</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="2" t="n">
-        <v>43832</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Compra de licencia de office empresarial</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>250</v>
-      </c>
-      <c r="H17" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>PASIVO</t>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>250.00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>02/01/2020</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Compra de licencia de office empresarial</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>PASIVO</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>PASIVO CORRIENTE</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2101</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>DEUDAS FINANCIERAS A CORTO PLAZO</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>210101</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>DEUDAS CON ENTIDADES DE CREDITOS</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Prestamo bancario</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>PATRIMONIO NETO</t>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5000.00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Prestamo bancario</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PASIVO NO CORRIENTE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>PATRIMONIO NETO</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>CAPITAL, RESERVAS Y RESULTADOS</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>3101</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>CAPITAL SOCIAL(CAPITAL EN ACCIONES)</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>310101</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>CAPITAL SOCIAL MINIMO</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>inyeccion inicial de capital</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2500</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>CUENTAS DE RESULTADO DEUDORAS</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>COSTOS POR OPERACIONES</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GASTOS DE OPERACIONES</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GASTOS NO OPERACIONALES</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>CUENTAS DE RESULTADO ACREEDORAS</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>INGRESOS OPERACIONALES</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INGRESOS NO OPERACIONALES</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>CUENTAS DE CIERRE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PERDIDAS Y GANANCIAS</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>